--- a/medicine/Mort/Décès_en_1976/Décès_en_1976.xlsx
+++ b/medicine/Mort/Décès_en_1976/Décès_en_1976.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1976</t>
+          <t>Décès_en_1976</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1976</t>
+          <t>Décès_en_1976</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Jean Archimbaud, aquarelliste, peintre, graveur et illustrateur français (° 20 mai 1901).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jean Archimbaud, aquarelliste, peintre, graveur et illustrateur français (° 20 mai 1901).
 André Auclair, peintre, sculpteur, céramiste et graveur français (° 1893).
 Léonide Berman, peintre russe puis soviétique (° 1898).
 Eugène Blot, peintre décorateur, dessinateur, paysagiste, professeur et corniste français (° 17 novembre 1883).
@@ -542,9 +559,43 @@
 Giuseppe Montanari, peintre italien (° 30 octobre 1889).
 Jesús Villalobos, footballeur péruvien (° 1er juillet 1927).
 Vers 1976 :
-Hou Yuon, homme politique cambodgien (° 1930).
-Janvier
-5 janvier : Georges Migot, compositeur français (° 27 février 1891).
+Hou Yuon, homme politique cambodgien (° 1930).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 janvier : Georges Migot, compositeur français (° 27 février 1891).
 6 janvier :
 Óscar Esplá, compositeur espagnol (° 5 août 1886).
 Henry George, coureur cycliste sur piste belge (° 18 février 1891).
@@ -566,9 +617,43 @@
 Jesse Fuller, musicien homme-orchestre américain (° 12 mars 1896).
 Jack Gwillim, acteur anglais (° 30 novembre 1916).
 30 janvier : Jean de Gaigneron, peintre français (° 22 février 1890).
-31 janvier : Fernand Sardou, chansonnier, comédien français, père de Michel Sardou (° 18 septembre 1910).
-Février
-1er février : Werner Heisenberg, physicien allemand (° 5 décembre 1901).
+31 janvier : Fernand Sardou, chansonnier, comédien français, père de Michel Sardou (° 18 septembre 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Werner Heisenberg, physicien allemand (° 5 décembre 1901).
 4 février : Roger Livesey, acteur britannique (° 25 juin 1906).
 12 février : Margarethe Furcht, chimiste austro-britannique (° 10 novembre 1879).
 13 février : Coghuf, peintre et sculpteur suisse (° 28 octobre 1905).
@@ -577,9 +662,43 @@
 20 février : René Cassin, juriste français, prix Nobel de la paix 1968 (° 5 octobre 1887).
 21 février : Domingo Mercante, militaire et homme politique argentin (° 11 juin 1898).
 27 février : Marcel Parturier, dessinateur et peintre français (° 7 avril 1901).
-28 février : Zofia Stryjeńska, peintre polonaise (° 13 mai 1891).
-Mars
-1er mars : Jean Martinon, chef d'orchestre et compositeur français (° 10 janvier 1910).
+28 février : Zofia Stryjeńska, peintre polonaise (° 13 mai 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Jean Martinon, chef d'orchestre et compositeur français (° 10 janvier 1910).
 3 mars :
 François de La Grange, journaliste français (° 20 août 1920).
 Pierre Molinier, peintre et poète français (° 13 avril 1900).
@@ -600,9 +719,43 @@
 28 mars :
 Richard Arlen, acteur américain (° 1er septembre 1898).
 Corrado Cagli, peintre italien (° 23 février 1910).
-30 mars : Albino Binda,  coureur cycliste italien (° 9 avril 1904).
-Avril
-1er avril :
+30 mars : Albino Binda,  coureur cycliste italien (° 9 avril 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Max Ernst, peintre et sculpteur français d'origine allemande (° 2 avril 1891).
 Roger Rivière, coureur cycliste français (° 23 février 1936).
 2 avril : Ray Teal, acteur américain (° 12 janvier 1902).
@@ -624,9 +777,43 @@
 25 avril : Markus Reiner, ingénieur israélien (° 5 janvier 1886).
 26 avril :
 Benita Koch-Otte, tisserande et designer textile allemande (° 23 mai 1892).
-Sidney Franklin, matador américain (° 11 juillet 1905).
-Mai
-3 mai : David Bruce, acteur américain (° 6 novembre 1914).
+Sidney Franklin, matador américain (° 11 juillet 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : David Bruce, acteur américain (° 6 novembre 1914).
 4 mai : Henri Bosco, écrivain français (° 16 novembre 1888).
 7 mai : Pei Te Hurinui Jones, écrivain néo-zélandais (° 9 septembre 1898).
 7 mai ou  8 mai : Alan Baxter, acteur américain (° 19 novembre 1908).
@@ -642,9 +829,43 @@
 21 mai : Juan Manuel Santisteban, coureur cycliste espagnol (° 25 octobre 1944).
 22 mai : Elwood Bredell, directeur de la photographie, photographe de plateau et acteur anglais (° 6 août 1884).
 26 mai : Martin Heidegger, philosophe allemand (° 26 septembre 1889).
-31 mai : Jacques Monod, biologiste et biochimiste français (° 9 février 1910).
-Juin
-4 juin : Walter Geering, juriste suisse (° 8 novembre 1890).
+31 mai : Jacques Monod, biologiste et biochimiste français (° 9 février 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Walter Geering, juriste suisse (° 8 novembre 1890).
 5 juin :
 Oscar Ivanissevich, chirurgien, footballeur et homme politique argentin (° 5 août 1895).
 Maurice Scott, avocat et homme politique fidjien (° 23 juillet 1910).
@@ -657,9 +878,43 @@
 30 juin :
 Gilbert Desmet, coureur cycliste belge (° 17 octobre 1910).
 Armand Nakache, peintre, graveur et illustrateur français (° 11 janvier 1894).
-Marguerite Roesgen-Champion, compositrice, pianiste et claveciniste suisse (° 25 janvier 1894).
-Juillet
-1er juillet : Nicolas Poliakoff, peintre russe naturalisé français (° 22 juillet 1899).
+Marguerite Roesgen-Champion, compositrice, pianiste et claveciniste suisse (° 25 janvier 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Nicolas Poliakoff, peintre russe naturalisé français (° 22 juillet 1899).
 3 juillet : Guy Montis, peintre français (° 26 septembre 1918).
 10 juillet :
 Roberta González, peintre et sculptrice française (° 13 septembre 1909).
@@ -678,9 +933,43 @@
 Thomas Burn : Footballeur international anglais. (° 29 novembre 1888).
 24 juillet : Afro Basaldella, peintre italien (° 4 mars 1912).
 25 juillet : Roland Terrier, capitaine au long cours, compagnon de la Libération (° 8 juillet 1917).
-26 juillet : Nikolaï Nossov, écrivain soviétique (° 23 novembre 1908).
-Août
-2 août :
+26 juillet : Nikolaï Nossov, écrivain soviétique (° 23 novembre 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août :
 Fritz Lang, réalisateur et scénariste allemand (° 5 décembre 1890).
 Charles Moureaux, homme politique belge (° 4 juin 1902).
 3 août : Olimpio Bizzi, coureur cycliste italien (° 1er août 1916).
@@ -692,9 +981,43 @@
 22 août :
 Louis Delvaux, homme politique, avocat et juge belge (° 21 octobre 1895).
 André Lanskoy, peintre russe (° 31 mars 1902).
-26 août : Warner Anderson, acteur américain (° 10 mars 1911).
-Septembre
-4 septembre : Ceferino Cella, footballeur espagnol (° 25 juin 1902).
+26 août : Warner Anderson, acteur américain (° 10 mars 1911).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Ceferino Cella, footballeur espagnol (° 25 juin 1902).
 7 septembre : Louis Brauquier, écrivain, poète et peintre français (° 14 août 1900).
 9 septembre : Mao Tsé Toung en Chine (° 26 décembre 1893).
 10 septembre : Dalton Trumbo, scénariste et réalisateur américain (° 9 décembre 1905).
@@ -708,9 +1031,43 @@
 26 septembre : Leland Benham, acteur américain (° 20 septembre 1905).
 30 septembre :
 Aage Fønss, acteur et chanteur d'opéra danois (° 12 décembre 1887).
-Louis Fourestier, violoncelliste, chef d'orchestre et compositeur français (° 31 mai 1892).
-Octobre
-5 octobre : Jacques Boullaire, dessinateur, graveur et peintre français (° 20 décembre 1893).
+Louis Fourestier, violoncelliste, chef d'orchestre et compositeur français (° 31 mai 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre : Jacques Boullaire, dessinateur, graveur et peintre français (° 20 décembre 1893).
 8 octobre : Franklin Lucero, militaire, diplomate et homme politique argentin (° 11 septembre 1897).
 12 octobre :
 Jean Désiré Bascoulès, peintre français (° 19 août 1886).
@@ -722,9 +1079,43 @@
 24 octobre : Helen Gaige, zoologiste américaine (° 24 novembre 1890).
 25 octobre : Raymond Queneau, écrivain et poète français (° 21 février 1903).
 26 octobre : Deryck Cooke, musicologue et musicien britannique (° 14 septembre 1919).
-31 octobre : Eileen Gray, conceptrice de mobilier irlandaise (° 9 août 1878).
-Novembre
-1er novembre : Oscar Beregi, Jr., acteur américain d'origine hongroise (° 12 mai 1918).
+31 octobre : Eileen Gray, conceptrice de mobilier irlandaise (° 9 août 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Oscar Beregi, Jr., acteur américain d'origine hongroise (° 12 mai 1918).
 4 novembre :
 : Yanette Delétang-Tardif, traductrice, poétesse et peintre française (° 18 juin 1902).
 : Henri Mabille, militaire et personnalité centrafricaine (° 25 septembre 1902).
@@ -734,7 +1125,7 @@
 11 novembre : Alexander Calder, sculpteur américain (° 22 juillet 1898).
 15 novembre : Jean Gabin, acteur français (° 17 mai 1904).
 18 novembre :
-René Quentier, footballeur français (° 20 juin 1903)[1].
+René Quentier, footballeur français (° 20 juin 1903).
 Man Ray, photographe et peintre américain (° 27 août 1890).
 20 novembre : Tetsuro Komai, peintre graveur et illustrateur japonais (° 14 juin 1920).
 22 novembre :
@@ -743,9 +1134,43 @@
 Alejandro Rodríguez de Valcárcel, homme politique espagnol (° 25 décembre 1917).
 23 novembre : André Malraux, écrivain français (° 3 novembre 1901).
 28 novembre : Rosalind Russell, actrice américaine (° 4 juin 1907).
-30 novembre : André Collot, peintre, graveur et illustrateur français (° 27 juin 1897).
-Décembre
-2 décembre :
+30 novembre : André Collot, peintre, graveur et illustrateur français (° 27 juin 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre :
 Alfredo Dinale, coureur cycliste italien (° 11 mars 1900).
 Marcel Montreuil, peintre français (° 8 juin 1894).
 4 décembre :
@@ -758,9 +1183,43 @@
 20 décembre : Walter Fitzgerald, acteur anglais (° 18 mai 1896).
 21 décembre : Orazio Fiume, compositeur italien (° 16 janvier 1908).
 24 décembre : Jean de Broglie, homme politique français (° 21 juin 1921).
-25 décembre : Günther Arndt, chef de chœur allemand (° 1er avril 1907).
-Date précise inconnue
-Emmy Leuze-Hirschfeld, peintre française (° 4 décembre 1884).
+25 décembre : Günther Arndt, chef de chœur allemand (° 1er avril 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1976</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1976</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Emmy Leuze-Hirschfeld, peintre française (° 4 décembre 1884).
 Pierre-Faustin Maleombho,  homme politique centrafricain (° 11 juillet 1926).
 Félix Lancís Sánchez, médecin et homme politique cubain (° 20 novembre 1900).</t>
         </is>
